--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -547,7 +547,7 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>59</v>
@@ -559,13 +559,13 @@
         <v>69</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <v>61</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <v>77</v>
@@ -574,7 +574,7 @@
         <v>69</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:13">

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -553,7 +553,7 @@
         <v>59</v>
       </c>
       <c r="F5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5">
         <v>69</v>

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -547,13 +547,13 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>59</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>69</v>
@@ -571,7 +571,7 @@
         <v>77</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5">
         <v>79</v>

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -603,13 +603,13 @@
         <v>84</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L6">
         <v>62</v>

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6">
         <v>46</v>
@@ -591,25 +591,25 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>52</v>
       </c>
       <c r="J6">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L6">
         <v>62</v>

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -591,7 +591,7 @@
         <v>74</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6">
         <v>71</v>
@@ -600,16 +600,16 @@
         <v>59</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I6">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L6">
         <v>62</v>

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -588,7 +588,7 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6">
         <v>53</v>
@@ -606,7 +606,7 @@
         <v>53</v>
       </c>
       <c r="J6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K6">
         <v>95</v>
@@ -623,7 +623,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>63</v>
@@ -635,13 +635,13 @@
         <v>63</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>61</v>
@@ -650,10 +650,10 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7">
         <v>66</v>

--- a/12个月份各月的蓝球分布数据.xlsx
+++ b/12个月份各月的蓝球分布数据.xlsx
@@ -623,16 +623,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>63</v>
       </c>
       <c r="D7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>61</v>
@@ -650,13 +650,13 @@
         <v>49</v>
       </c>
       <c r="K7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13">
